--- a/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.xlsx
+++ b/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="49">
   <si>
     <t>Priority</t>
   </si>
@@ -130,6 +130,46 @@
   </si>
   <si>
     <t>Clone the Organizations Table but replace the Company ID column with Facility ID where the facility ID content is TBD. It needs to be in the TOC</t>
+  </si>
+  <si>
+    <t>CPID</t>
+  </si>
+  <si>
+    <t>Title Bar</t>
+  </si>
+  <si>
+    <t>Add 3 spaces after 
+Date of Initial Approval/Revision:</t>
+  </si>
+  <si>
+    <t>Redce to 3 spaces after Brand Name: 
+Date of Initial Approval/Revision:</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>reduce size of Summary of Product Information/Strength Field</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Footers should be formated as header in all tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separate eac entry in repeating fields, using ";" see 
+Summary of Product Information/Route Of Administration
+</t>
+  </si>
+  <si>
+    <t>Create TOC entries for CPID Overview subsections</t>
+  </si>
+  <si>
+    <t>move the HC images to static site</t>
+  </si>
+  <si>
+    <t>TOC</t>
   </si>
 </sst>
 </file>
@@ -470,11 +510,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -771,6 +811,146 @@
         <v>35</v>
       </c>
     </row>
+    <row r="15" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.xlsx
+++ b/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="53">
   <si>
     <t>Priority</t>
   </si>
@@ -170,6 +170,18 @@
   </si>
   <si>
     <t>TOC</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Product Description Table</t>
+  </si>
+  <si>
+    <t>The Product Information -&gt; Route Of Administration field needs 2 spaces after each ;</t>
   </si>
 </sst>
 </file>
@@ -510,11 +522,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -559,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
@@ -619,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
@@ -949,6 +961,26 @@
       </c>
       <c r="F21" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.xlsx
+++ b/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
   <si>
     <t>Priority</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>The Product Information -&gt; Route Of Administration field needs 2 spaces after each ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove the Product Information -&gt; Reporting Period field </t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>Remove the Product Information -&gt; Product Type field is mapped to the wrong element it should be the marketing_catagory from 2.16.840.1.113883.2.20.6.27 but not sure how to encode this. &lt;templateId root="2.16.840.1.113883.2.20.6.27" extension="Biologic"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -522,11 +531,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -983,6 +992,46 @@
         <v>52</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
